--- a/proxsens/pop.xlsx
+++ b/proxsens/pop.xlsx
@@ -21,6 +21,26 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t>theta</t>
+  </si>
+  <si>
+    <t>pixel</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Slope</t>
+  </si>
+  <si>
+    <t>Intercept</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -370,104 +390,137 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1">
-        <v>1.9599999999999999E-2</v>
-      </c>
-      <c r="B1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <f>ATAN2(C2,5)</f>
+        <v>3.0665230926948613E-2</v>
+      </c>
+      <c r="B2">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <f t="shared" ref="A3:A9" si="0">ATAN2(C3,5)</f>
+        <v>3.495079653065275E-2</v>
+      </c>
+      <c r="B3">
+        <v>12</v>
+      </c>
+      <c r="C3">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <f t="shared" si="0"/>
+        <v>4.0628037681373123E-2</v>
+      </c>
+      <c r="B4">
+        <v>13</v>
+      </c>
+      <c r="C4">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <f t="shared" si="0"/>
+        <v>4.8505612240383508E-2</v>
+      </c>
+      <c r="B5">
+        <v>18</v>
+      </c>
+      <c r="C5">
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>2.23E-2</v>
-      </c>
-      <c r="B2">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>2.5600000000000001E-2</v>
-      </c>
-      <c r="B3">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>3.04E-2</v>
-      </c>
-      <c r="B4">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>3.7199999999999997E-2</v>
-      </c>
-      <c r="B5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>4.7500000000000001E-2</v>
+        <f t="shared" si="0"/>
+        <v>6.0168251155009719E-2</v>
       </c>
       <c r="B6">
-        <v>131.1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="C6">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>6.6500000000000004E-2</v>
+        <f t="shared" si="0"/>
+        <v>7.9199070969451488E-2</v>
       </c>
       <c r="B7">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+      <c r="C7">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>0.1106</v>
+        <f t="shared" si="0"/>
+        <v>0.11575921772081071</v>
       </c>
       <c r="B8">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+      <c r="C8">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>0.1651486774</v>
+        <f t="shared" si="0"/>
+        <v>0.21406068356382149</v>
       </c>
       <c r="B9">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>0.32169999999999999</v>
-      </c>
-      <c r="B10">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12">
-        <f>SLOPE(A1:A10,B1:B10)</f>
-        <v>9.2348534554322341E-4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+        <v>95</v>
+      </c>
+      <c r="C9">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13">
-        <f>INTERCEPT(A1:A10,B1:B10)</f>
-        <v>-7.4563240685107141E-2</v>
+        <f>SLOPE(A2:A9,B2:B9)</f>
+        <v>2.1261041696005799E-3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <f>INTERCEPT(A2:A9,B2:B9)</f>
+        <v>9.6910161501378017E-3</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/proxsens/pop.xlsx
+++ b/proxsens/pop.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17571"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Visual\Pi\proxsens\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6980"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6975"/>
   </bookViews>
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -44,8 +39,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -136,7 +131,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -188,7 +183,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -382,23 +377,23 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -409,117 +404,261 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3">
       <c r="A2">
         <f>ATAN2(C2,5)</f>
-        <v>3.0665230926948613E-2</v>
+        <v>1.2499349019361679E-2</v>
       </c>
       <c r="B2">
+        <v>7</v>
+      </c>
+      <c r="C2">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <f t="shared" ref="A3:A21" si="0">ATAN2(C3,5)</f>
+        <v>1.3157135472755739E-2</v>
+      </c>
+      <c r="B3">
         <v>8</v>
       </c>
-      <c r="C2">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <f t="shared" ref="A3:A9" si="0">ATAN2(C3,5)</f>
-        <v>3.495079653065275E-2</v>
-      </c>
-      <c r="B3">
+      <c r="C3">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <f t="shared" si="0"/>
+        <v>1.3887995930967073E-2</v>
+      </c>
+      <c r="B4">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <f t="shared" si="0"/>
+        <v>1.4704822377851432E-2</v>
+      </c>
+      <c r="B5">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>1.5623728620476831E-2</v>
+      </c>
+      <c r="B6">
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>1.6665123713940747E-2</v>
+      </c>
+      <c r="B7">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>1.7855245139552514E-2</v>
+      </c>
+      <c r="B8">
+        <v>11</v>
+      </c>
+      <c r="C8">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>1.9228399099707208E-2</v>
+      </c>
+      <c r="B9">
+        <v>11</v>
+      </c>
+      <c r="C9">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>2.0830320036217084E-2</v>
+      </c>
+      <c r="B10">
+        <v>11</v>
+      </c>
+      <c r="C10">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>2.2723360841641067E-2</v>
+      </c>
+      <c r="B11">
         <v>12</v>
       </c>
-      <c r="C3">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <f t="shared" si="0"/>
-        <v>4.0628037681373123E-2</v>
-      </c>
-      <c r="B4">
+      <c r="C11">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>2.4994793618920159E-2</v>
+      </c>
+      <c r="B12">
         <v>13</v>
       </c>
-      <c r="C4">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <f t="shared" si="0"/>
-        <v>4.8505612240383508E-2</v>
-      </c>
-      <c r="B5">
-        <v>18</v>
-      </c>
-      <c r="C5">
+      <c r="C12">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>2.7770636593421036E-2</v>
+      </c>
+      <c r="B13">
+        <v>15</v>
+      </c>
+      <c r="C13">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>3.1239833430268277E-2</v>
+      </c>
+      <c r="B14">
+        <v>16</v>
+      </c>
+      <c r="C14">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>3.569911267932397E-2</v>
+      </c>
+      <c r="B15">
+        <v>19</v>
+      </c>
+      <c r="C15">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>4.1642579098588421E-2</v>
+      </c>
+      <c r="B16">
+        <v>21</v>
+      </c>
+      <c r="C16">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>4.9958395721942765E-2</v>
+      </c>
+      <c r="B17">
+        <v>25</v>
+      </c>
+      <c r="C17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>6.241880999595735E-2</v>
+      </c>
+      <c r="B18">
+        <v>31</v>
+      </c>
+      <c r="C18">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>8.3141231888441219E-2</v>
+      </c>
+      <c r="B19">
+        <v>40</v>
+      </c>
+      <c r="C19">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>0.12435499454676144</v>
+      </c>
+      <c r="B20">
+        <v>57</v>
+      </c>
+      <c r="C20">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <f t="shared" si="0"/>
+        <v>0.24497866312686414</v>
+      </c>
+      <c r="B21">
         <v>103</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <f t="shared" si="0"/>
-        <v>6.0168251155009719E-2</v>
-      </c>
-      <c r="B6">
-        <v>26</v>
-      </c>
-      <c r="C6">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <f t="shared" si="0"/>
-        <v>7.9199070969451488E-2</v>
-      </c>
-      <c r="B7">
-        <v>35</v>
-      </c>
-      <c r="C7">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <f t="shared" si="0"/>
-        <v>0.11575921772081071</v>
-      </c>
-      <c r="B8">
-        <v>50</v>
-      </c>
-      <c r="C8">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <f t="shared" si="0"/>
-        <v>0.21406068356382149</v>
-      </c>
-      <c r="B9">
-        <v>95</v>
-      </c>
-      <c r="C9">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13">
-        <f>SLOPE(A2:A9,B2:B9)</f>
-        <v>2.1261041696005799E-3</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="C21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <f>SLOPE(A2:A21,B2:B21)</f>
+        <v>2.3919040049697419E-3</v>
+      </c>
+      <c r="B23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14">
-        <f>INTERCEPT(A2:A9,B2:B9)</f>
-        <v>9.6910161501378017E-3</v>
-      </c>
-      <c r="B14" t="s">
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <f>INTERCEPT(A2:A21,B2:B21)</f>
+        <v>-7.355185560443879E-3</v>
+      </c>
+      <c r="B24" t="s">
         <v>4</v>
       </c>
     </row>

--- a/proxsens/pop.xlsx
+++ b/proxsens/pop.xlsx
@@ -390,7 +390,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
@@ -398,7 +398,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -408,118 +408,172 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="K1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2">
         <f>ATAN2(C2,5)</f>
-        <v>3.0665230926948613E-2</v>
+        <v>2.4994793618920159E-2</v>
       </c>
       <c r="B2">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C2">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+        <v>200</v>
+      </c>
+      <c r="K2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3">
-        <f t="shared" ref="A3:A9" si="0">ATAN2(C3,5)</f>
-        <v>3.495079653065275E-2</v>
+        <f t="shared" ref="A3:A12" si="0">ATAN2(C3,5)</f>
+        <v>2.7770636593421036E-2</v>
       </c>
       <c r="B3">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="C3">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+        <v>180</v>
+      </c>
+      <c r="K3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4">
         <f t="shared" si="0"/>
-        <v>4.0628037681373123E-2</v>
+        <v>3.1239833430268277E-2</v>
       </c>
       <c r="B4">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C4">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+        <v>160</v>
+      </c>
+      <c r="K4">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5">
         <f t="shared" si="0"/>
-        <v>4.8505612240383508E-2</v>
+        <v>3.569911267932397E-2</v>
       </c>
       <c r="B5">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C5">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+        <v>140</v>
+      </c>
+      <c r="K5">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6">
         <f t="shared" si="0"/>
-        <v>6.0168251155009719E-2</v>
+        <v>4.1642579098588421E-2</v>
       </c>
       <c r="B6">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C6">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+        <v>120</v>
+      </c>
+      <c r="K6">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7">
         <f t="shared" si="0"/>
-        <v>7.9199070969451488E-2</v>
+        <v>4.9958395721942765E-2</v>
       </c>
       <c r="B7">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C7">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+        <v>100</v>
+      </c>
+      <c r="K7">
+        <v>43.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8">
         <f t="shared" si="0"/>
-        <v>0.11575921772081071</v>
+        <v>6.241880999595735E-2</v>
       </c>
       <c r="B8">
-        <v>50</v>
+        <v>43.5</v>
       </c>
       <c r="C8">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+        <v>80</v>
+      </c>
+      <c r="K8">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9">
         <f t="shared" si="0"/>
-        <v>0.21406068356382149</v>
+        <v>8.3141231888441219E-2</v>
       </c>
       <c r="B9">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="C9">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13">
-        <f>SLOPE(A2:A9,B2:B9)</f>
-        <v>2.1261041696005799E-3</v>
-      </c>
-      <c r="B13" t="s">
+        <v>60</v>
+      </c>
+      <c r="K9">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>0.12435499454676144</v>
+      </c>
+      <c r="B10">
+        <v>77</v>
+      </c>
+      <c r="C10">
+        <v>40</v>
+      </c>
+      <c r="K10">
+        <v>147.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>0.24497866312686414</v>
+      </c>
+      <c r="B11">
+        <v>147.5</v>
+      </c>
+      <c r="C11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <f>SLOPE(A2:A11,B2:B11)</f>
+        <v>1.7793706192825514E-3</v>
+      </c>
+      <c r="B14" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14">
-        <f>INTERCEPT(A2:A9,B2:B9)</f>
-        <v>9.6910161501378017E-3</v>
-      </c>
-      <c r="B14" t="s">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <f>INTERCEPT(A2:A11,B2:B11)</f>
+        <v>-1.5814814708293934E-2</v>
+      </c>
+      <c r="B15" t="s">
         <v>4</v>
       </c>
     </row>

--- a/proxsens/pop.xlsx
+++ b/proxsens/pop.xlsx
@@ -86,6 +86,217 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>גיליון1!$B$2:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>19</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>גיליון1!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1.2499349019361679E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3157135472755739E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3887995930967073E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4704822377851432E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5623728620476831E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.6665123713940747E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.7855245139552514E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.9228399099707208E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.0830320036217084E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.2723360841641067E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.4994793618920159E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.7770636593421036E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.1239833430268277E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.569911267932397E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.1642579098588421E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.9958395721942765E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.241880999595735E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.3141231888441219E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.12435499454676144</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.24497866312686414</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:axId val="152163456"/>
+        <c:axId val="152157568"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="152163456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="152157568"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="152157568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="152163456"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="תרשים 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -377,7 +588,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -385,15 +596,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -404,7 +615,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:6">
       <c r="A2">
         <f>ATAN2(C2,5)</f>
         <v>1.2499349019361679E-2</v>
@@ -415,8 +626,11 @@
       <c r="C2">
         <v>400</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="F2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <f t="shared" ref="A3:A21" si="0">ATAN2(C3,5)</f>
         <v>1.3157135472755739E-2</v>
@@ -427,8 +641,11 @@
       <c r="C3">
         <v>380</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="F3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <f t="shared" si="0"/>
         <v>1.3887995930967073E-2</v>
@@ -439,8 +656,11 @@
       <c r="C4">
         <v>360</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="F4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>1.4704822377851432E-2</v>
@@ -451,8 +671,11 @@
       <c r="C5">
         <v>340</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="F5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>1.5623728620476831E-2</v>
@@ -463,8 +686,11 @@
       <c r="C6">
         <v>320</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="F6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>1.6665123713940747E-2</v>
@@ -475,8 +701,11 @@
       <c r="C7">
         <v>300</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="F7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>1.7855245139552514E-2</v>
@@ -487,8 +716,11 @@
       <c r="C8">
         <v>280</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="F8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>1.9228399099707208E-2</v>
@@ -499,8 +731,11 @@
       <c r="C9">
         <v>260</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="F9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>2.0830320036217084E-2</v>
@@ -511,8 +746,11 @@
       <c r="C10">
         <v>240</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="F10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>2.2723360841641067E-2</v>
@@ -523,8 +761,11 @@
       <c r="C11">
         <v>220</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="F11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>2.4994793618920159E-2</v>
@@ -535,8 +776,11 @@
       <c r="C12">
         <v>200</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="F12">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>2.7770636593421036E-2</v>
@@ -547,8 +791,11 @@
       <c r="C13">
         <v>180</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="F13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>3.1239833430268277E-2</v>
@@ -559,8 +806,11 @@
       <c r="C14">
         <v>160</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="F14">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>3.569911267932397E-2</v>
@@ -571,92 +821,95 @@
       <c r="C15">
         <v>140</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="F15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>4.1642579098588421E-2</v>
-      </c>
-      <c r="B16">
-        <v>21</v>
       </c>
       <c r="C16">
         <v>120</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="F16">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>4.9958395721942765E-2</v>
-      </c>
-      <c r="B17">
-        <v>25</v>
       </c>
       <c r="C17">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="F17">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>6.241880999595735E-2</v>
-      </c>
-      <c r="B18">
-        <v>31</v>
       </c>
       <c r="C18">
         <v>80</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="F18">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>8.3141231888441219E-2</v>
-      </c>
-      <c r="B19">
-        <v>40</v>
       </c>
       <c r="C19">
         <v>60</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="F19">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>0.12435499454676144</v>
-      </c>
-      <c r="B20">
-        <v>57</v>
       </c>
       <c r="C20">
         <v>40</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="F20">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>0.24497866312686414</v>
-      </c>
-      <c r="B21">
-        <v>103</v>
       </c>
       <c r="C21">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="F21">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23">
         <f>SLOPE(A2:A21,B2:B21)</f>
-        <v>2.3919040049697419E-3</v>
+        <v>2.0430185423364606E-3</v>
       </c>
       <c r="B23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:6">
       <c r="A24">
         <f>INTERCEPT(A2:A21,B2:B21)</f>
-        <v>-7.355185560443879E-3</v>
+        <v>-2.5655052224825732E-3</v>
       </c>
       <c r="B24" t="s">
         <v>4</v>
@@ -664,5 +917,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/proxsens/pop.xlsx
+++ b/proxsens/pop.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17830"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aviha\Source\Repos\optimuspi\proxsens\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6975"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6978"/>
   </bookViews>
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="171027"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -39,8 +44,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,13 +94,25 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="he-IL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -220,7 +237,20 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E448-4194-9C02-3668C3337968}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:axId val="152163456"/>
         <c:axId val="152157568"/>
       </c:scatterChart>
@@ -229,8 +259,11 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="152157568"/>
         <c:crosses val="autoZero"/>
@@ -241,9 +274,12 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="152163456"/>
         <c:crosses val="autoZero"/>
@@ -252,9 +288,11 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -281,7 +319,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="תרשים 1"/>
+        <xdr:cNvPr id="2" name="תרשים 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -588,23 +632,23 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -615,7 +659,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <f>ATAN2(C2,5)</f>
         <v>1.2499349019361679E-2</v>
@@ -630,7 +674,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <f t="shared" ref="A3:A21" si="0">ATAN2(C3,5)</f>
         <v>1.3157135472755739E-2</v>
@@ -645,7 +689,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <f t="shared" si="0"/>
         <v>1.3887995930967073E-2</v>
@@ -660,7 +704,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>1.4704822377851432E-2</v>
@@ -675,7 +719,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>1.5623728620476831E-2</v>
@@ -690,7 +734,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>1.6665123713940747E-2</v>
@@ -705,7 +749,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>1.7855245139552514E-2</v>
@@ -720,7 +764,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>1.9228399099707208E-2</v>
@@ -735,7 +779,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>2.0830320036217084E-2</v>
@@ -750,7 +794,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>2.2723360841641067E-2</v>
@@ -765,7 +809,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>2.4994793618920159E-2</v>
@@ -780,7 +824,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>2.7770636593421036E-2</v>
@@ -795,7 +839,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>3.1239833430268277E-2</v>
@@ -810,7 +854,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>3.569911267932397E-2</v>
@@ -825,7 +869,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>4.1642579098588421E-2</v>
@@ -837,7 +881,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>4.9958395721942765E-2</v>
@@ -849,7 +893,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>6.241880999595735E-2</v>
@@ -861,7 +905,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>8.3141231888441219E-2</v>
@@ -873,7 +917,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>0.12435499454676144</v>
@@ -885,7 +929,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>0.24497866312686414</v>
@@ -897,7 +941,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A23">
         <f>SLOPE(A2:A21,B2:B21)</f>
         <v>2.0430185423364606E-3</v>
@@ -906,7 +950,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A24">
         <f>INTERCEPT(A2:A21,B2:B21)</f>
         <v>-2.5655052224825732E-3</v>
